--- a/output/fit_clients/fit_round_337.xlsx
+++ b/output/fit_clients/fit_round_337.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1866873043.699157</v>
+        <v>1529305826.75582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.107314168240661</v>
+        <v>0.1119311933454718</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0330187895830147</v>
+        <v>0.03004219517820798</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>933436499.5684633</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2304929913.711211</v>
+        <v>2207196191.344038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1237355001779706</v>
+        <v>0.1564583520801784</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04795462915373309</v>
+        <v>0.03672109673067109</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1152465044.143528</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4440078263.255106</v>
+        <v>4479120524.839908</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1587730786950793</v>
+        <v>0.1048064669748586</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02678900860354087</v>
+        <v>0.02377443315490243</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>122</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2220039176.982058</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3004911503.191525</v>
+        <v>4001743545.377168</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08053392001486583</v>
+        <v>0.07153620259666436</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04879782348060367</v>
+        <v>0.05010521627937053</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>124</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1502455821.10106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2301822773.492088</v>
+        <v>2533809878.697386</v>
       </c>
       <c r="F6" t="n">
-        <v>0.131772355638551</v>
+        <v>0.1435865318000479</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04324367746206727</v>
+        <v>0.05484993709200893</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1150911383.684075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2385916800.738976</v>
+        <v>2602643178.471279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06436059209926813</v>
+        <v>0.0913951458571685</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04204676117896525</v>
+        <v>0.03904272943261938</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1192958424.368349</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3928058135.053399</v>
+        <v>3333832306.222692</v>
       </c>
       <c r="F8" t="n">
-        <v>0.182228971234342</v>
+        <v>0.1372283961274579</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03026679784708551</v>
+        <v>0.03262242684120432</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>107</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1964029219.921042</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1743590855.547312</v>
+        <v>2122158109.65502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1970690826569164</v>
+        <v>0.1305011141735432</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02589931026320368</v>
+        <v>0.02878603247998984</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>871795489.9708518</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5516869391.160822</v>
+        <v>4212192700.614077</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1724740715702665</v>
+        <v>0.1697290404494041</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03523484148126899</v>
+        <v>0.03904052240824219</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>142</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2758434834.9515</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4128571516.877775</v>
+        <v>3984642023.05155</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1437272582379342</v>
+        <v>0.1710076103030176</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03698076169702819</v>
+        <v>0.04210849768453664</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>139</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2064285780.089492</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2168202861.379366</v>
+        <v>2650175043.556939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1274529551723882</v>
+        <v>0.1516712598247396</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03616975050405916</v>
+        <v>0.03518612145848102</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>115</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1084101372.541282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5115432830.351043</v>
+        <v>5106464552.356826</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08134074256117776</v>
+        <v>0.06558987716824004</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02826536785094493</v>
+        <v>0.02706187304489411</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>113</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2557716413.456008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3648269644.954547</v>
+        <v>2496863998.554345</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1851563948897926</v>
+        <v>0.1244699297293607</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03652091362863383</v>
+        <v>0.04223117125080469</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1824134809.980764</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1615066384.570588</v>
+        <v>1371767672.706224</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09934472784951323</v>
+        <v>0.0757104861921639</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04684863997664315</v>
+        <v>0.0376121379454982</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>807533303.8782042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2421578815.218533</v>
+        <v>2071287879.274427</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1054645997079825</v>
+        <v>0.09148666868670856</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04449738922292972</v>
+        <v>0.03258608957585123</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1210789445.43386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3523063699.825863</v>
+        <v>3945796311.215241</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1578612536622389</v>
+        <v>0.1104621346162557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05327711426249224</v>
+        <v>0.03216779722401247</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>99</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1761531908.047137</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2681500734.280432</v>
+        <v>4013967374.361361</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1197301438479724</v>
+        <v>0.164644783569685</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02866949854901209</v>
+        <v>0.02959563363382356</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>110</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1340750420.444964</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1033254709.381077</v>
+        <v>1333265778.353149</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1855595503558154</v>
+        <v>0.1267926869272065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02747381205422471</v>
+        <v>0.01836239612834518</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>516627392.0636063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2682384681.199988</v>
+        <v>2242114519.237858</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1350997526059946</v>
+        <v>0.144304233912456</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02787210238740135</v>
+        <v>0.03094766183651457</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>44</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1341192294.276329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2114940689.344226</v>
+        <v>1692795434.028269</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07604012927962144</v>
+        <v>0.07315494236936343</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04589033139056057</v>
+        <v>0.03661673048668657</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1057470369.611259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2711934959.795408</v>
+        <v>3822714223.858274</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09248407813802144</v>
+        <v>0.1263786896326389</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04528983622425733</v>
+        <v>0.05264644126873398</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1355967558.686144</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1217482509.170359</v>
+        <v>968950060.1785016</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1395965555250465</v>
+        <v>0.1144604002602052</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05108220057579425</v>
+        <v>0.04126246567423848</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>608741288.1232059</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2770220809.055418</v>
+        <v>3178019139.485759</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1344317970224327</v>
+        <v>0.09092679878853095</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02323855723318275</v>
+        <v>0.02923517326801112</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1385110455.223638</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1301540926.721587</v>
+        <v>1248790145.104058</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07638629192904432</v>
+        <v>0.0812629216392461</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02105748302554694</v>
+        <v>0.02617468964981477</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>650770457.9944959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1449970426.836622</v>
+        <v>1327715728.883425</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08995858366679642</v>
+        <v>0.08192139110392711</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0267085027277333</v>
+        <v>0.02661485185290963</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>724985295.6222122</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3711322092.655149</v>
+        <v>4055744856.685759</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1057636216128019</v>
+        <v>0.1478394865431622</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0217622301783078</v>
+        <v>0.02482284896399603</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1855661070.804321</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3137840034.612998</v>
+        <v>3177623868.036929</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1320975236257242</v>
+        <v>0.1030661731886281</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03527447807495354</v>
+        <v>0.03430881832123991</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>108</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1568920040.505826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4377304565.024602</v>
+        <v>5699064597.625983</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1122131178360091</v>
+        <v>0.1350023617151611</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0449519906714702</v>
+        <v>0.03376276199187395</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>149</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2188652273.228395</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1885733975.67276</v>
+        <v>2225394032.964544</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1228988920344078</v>
+        <v>0.1141442138897707</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0299436950969341</v>
+        <v>0.02469141631562459</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>942867012.2731462</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1390927124.503489</v>
+        <v>1438042929.287174</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1097694742257726</v>
+        <v>0.1006189513079207</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04259633624403958</v>
+        <v>0.04120826096301505</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>695463468.7895551</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1735457369.272099</v>
+        <v>1265159171.720259</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07987953934579339</v>
+        <v>0.08257200697998737</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0331053449918156</v>
+        <v>0.02683002197673721</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>867728801.7401607</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2266647188.76054</v>
+        <v>2949602805.130348</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1562311288329051</v>
+        <v>0.1912963006413122</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06126752518198972</v>
+        <v>0.0524855140360923</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1133323652.491285</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1165897611.225535</v>
+        <v>1133235767.897424</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1149433480808812</v>
+        <v>0.08690784110275392</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02786540432017184</v>
+        <v>0.01879272110335626</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>582948816.2681657</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>951927537.5031554</v>
+        <v>1178566379.046377</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1029954065354662</v>
+        <v>0.08853416136075501</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03670206400794472</v>
+        <v>0.03321326512791149</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>475963797.8702346</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2760023333.440829</v>
+        <v>3031112969.675031</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1736800694802677</v>
+        <v>0.1390632595037958</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02266419076603134</v>
+        <v>0.02269179837492139</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>84</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1380011667.886788</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1972853305.423795</v>
+        <v>2528971677.809813</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1117693555404885</v>
+        <v>0.1054906137778366</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04182646285136172</v>
+        <v>0.02843990119207099</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>90</v>
-      </c>
-      <c r="J37" t="n">
-        <v>986426676.2511829</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1906001399.854748</v>
+        <v>1433057979.35323</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0887997447530797</v>
+        <v>0.08339752456886404</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03159035959457724</v>
+        <v>0.02833666015408438</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>953000691.8433367</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1766884133.477678</v>
+        <v>1448057598.033333</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1524979884446785</v>
+        <v>0.1394824108995748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02063932082689378</v>
+        <v>0.02427780920784867</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>883442096.6983144</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1385194684.495968</v>
+        <v>1222438917.752785</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1338605938878347</v>
+        <v>0.122576833246966</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05077931871889733</v>
+        <v>0.0380381436323093</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>692597337.1744252</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2490352308.888623</v>
+        <v>2878457368.178119</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1493706654446532</v>
+        <v>0.1006218398127755</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0440107017102884</v>
+        <v>0.03515348284676063</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>85</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1245176180.652929</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2902686743.369115</v>
+        <v>3055749831.036099</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09057919683156644</v>
+        <v>0.07841425626017101</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03414756132601493</v>
+        <v>0.02832600314960226</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>112</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1451343325.456177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2010418157.683934</v>
+        <v>2436462014.891586</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1266554752314405</v>
+        <v>0.1595449400227388</v>
       </c>
       <c r="G43" t="n">
-        <v>0.015626603068978</v>
+        <v>0.01834369368651436</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>122</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1005209176.755714</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1598324037.503517</v>
+        <v>2061348407.583701</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09640961896221699</v>
+        <v>0.07064512856323209</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0280119579140688</v>
+        <v>0.02546166118023448</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>799162044.948559</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1745902529.885985</v>
+        <v>1657936553.932191</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1847043773426112</v>
+        <v>0.1767581963638479</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04025260490185793</v>
+        <v>0.03719148341562043</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>872951230.2413051</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3876698231.150145</v>
+        <v>3655801594.558506</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1419298688699917</v>
+        <v>0.1534312457222198</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05137527552715068</v>
+        <v>0.05900311171390259</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>120</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1938349078.066226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3605410936.358543</v>
+        <v>3997859612.136194</v>
       </c>
       <c r="F47" t="n">
-        <v>0.185401711617765</v>
+        <v>0.1726369729213212</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0449196534881677</v>
+        <v>0.03780350216002176</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>90</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1802705445.002293</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4589730760.565042</v>
+        <v>4145903374.839443</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07012900464465195</v>
+        <v>0.1095450714372202</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02770385241096236</v>
+        <v>0.03145935224346557</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2294865380.363655</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1369938397.53897</v>
+        <v>1647172858.149218</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1763311304044237</v>
+        <v>0.1836923637437294</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03996570506968979</v>
+        <v>0.04159591317125125</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>684969251.0287884</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3591974375.092929</v>
+        <v>3596041536.183731</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1245716088658595</v>
+        <v>0.1217449143055392</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05238558631200809</v>
+        <v>0.05242451050503562</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>115</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1795987205.255284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>979026867.4007928</v>
+        <v>994939895.2699075</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152730081421121</v>
+        <v>0.1557040136223636</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04190789016552755</v>
+        <v>0.03311031840413538</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>489513521.0617611</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5004358865.250131</v>
+        <v>3434036115.516582</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1046508469584876</v>
+        <v>0.1111963029506513</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05539987465616891</v>
+        <v>0.05445240714827199</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>139</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2502179430.003303</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2622747376.29088</v>
+        <v>3192966595.460077</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1405931201250367</v>
+        <v>0.1411482924559313</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02735295608588163</v>
+        <v>0.03186519805760074</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1311373746.636153</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4912655234.498692</v>
+        <v>3101462529.629425</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1322259704000301</v>
+        <v>0.1287941210718563</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04934666270141242</v>
+        <v>0.03560816984622164</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>109</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2456327752.976979</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3450627910.160179</v>
+        <v>3954316651.56466</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1692683572722259</v>
+        <v>0.1906545081108867</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0317657558743618</v>
+        <v>0.02383594973698477</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1725313905.753219</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1637968776.492957</v>
+        <v>1521532088.081771</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1162282039999972</v>
+        <v>0.1498016858332786</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0454677997256878</v>
+        <v>0.05536502511040993</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>818984410.0644552</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2867424345.434303</v>
+        <v>2858904179.706792</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1123031826192207</v>
+        <v>0.1522482449441836</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01993050176128493</v>
+        <v>0.02543972994429894</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>107</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1433712165.994666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1376886052.135361</v>
+        <v>1794773149.829656</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1239017075633635</v>
+        <v>0.1845835155739754</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03214764451110536</v>
+        <v>0.03136942246179309</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>688443068.4454459</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4442145559.688688</v>
+        <v>3828467852.505636</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08484622755238001</v>
+        <v>0.1262215705988096</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03177101425848163</v>
+        <v>0.03283837533324601</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2221072734.455902</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3217945465.704859</v>
+        <v>2810268557.481593</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1536709835295116</v>
+        <v>0.1315049773029363</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02043255769567313</v>
+        <v>0.03229158171286668</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1608972826.070267</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2334629827.22747</v>
+        <v>2838715478.450148</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1417502711942645</v>
+        <v>0.15102799148499</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02259182177939315</v>
+        <v>0.02676874231250432</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>115</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1167314956.838752</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1623905275.470972</v>
+        <v>1807347329.828583</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1858113540979644</v>
+        <v>0.1871308236195049</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03675764129638701</v>
+        <v>0.03519904018454131</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>811952639.3591481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4282928434.60078</v>
+        <v>4556048914.35663</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06598745338762349</v>
+        <v>0.07347821314472049</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04266113489093653</v>
+        <v>0.04622667501519196</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2141464267.089415</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5385305413.471631</v>
+        <v>5169741410.125651</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1818854381328677</v>
+        <v>0.166807389763171</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02752192165974255</v>
+        <v>0.02278244528172312</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>105</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2692652840.040155</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5358726600.190188</v>
+        <v>4375808138.244198</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1084924721338311</v>
+        <v>0.1296344432716681</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02191944703641732</v>
+        <v>0.0198360197510298</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>121</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2679363237.604034</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4894476703.076259</v>
+        <v>4251853087.395383</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1259998664018254</v>
+        <v>0.1512641052042149</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04702920082936671</v>
+        <v>0.04597765169344276</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>98</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2447238373.052525</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2673259132.646918</v>
+        <v>3260707031.364792</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09251944698970266</v>
+        <v>0.06917522735485339</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03723272769102796</v>
+        <v>0.03237172151365957</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>108</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1336629612.225149</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4871816029.878865</v>
+        <v>6035567157.415928</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1381160260987062</v>
+        <v>0.10378380272858</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04198433452215613</v>
+        <v>0.03277119818516986</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>109</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2435908063.567705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1987164396.527693</v>
+        <v>1849964748.397324</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1808638474429553</v>
+        <v>0.1678547796479905</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05278182817158127</v>
+        <v>0.0433881187178091</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>993582201.5444736</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2768209484.16067</v>
+        <v>2963876121.047709</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08525836087006665</v>
+        <v>0.08462248104027509</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04129879589681238</v>
+        <v>0.03247602137847366</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>96</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1384104704.06415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3975180218.226997</v>
+        <v>4155245363.123485</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1567330859220322</v>
+        <v>0.1594207096183906</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02295908407612834</v>
+        <v>0.02305167502806685</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>122</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1987590138.292901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1846945840.799572</v>
+        <v>1730535123.669759</v>
       </c>
       <c r="F72" t="n">
-        <v>0.076219805004903</v>
+        <v>0.0718860252869345</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03741151503191718</v>
+        <v>0.03535127453021246</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>923472891.4333938</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2879315368.228563</v>
+        <v>3020313117.317733</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093508083016938</v>
+        <v>0.07480019280067879</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04181034490831968</v>
+        <v>0.05087042768259539</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>128</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1439657691.151654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2786237483.399911</v>
+        <v>2700168455.777534</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1460552127020543</v>
+        <v>0.1681368021556054</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02316372618421798</v>
+        <v>0.0280912377411961</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>115</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1393118825.598537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1619612408.445025</v>
+        <v>1868808136.014055</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1659692715956103</v>
+        <v>0.1225537071120905</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03486517319693543</v>
+        <v>0.02394243984931779</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>809806204.0246109</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4074914737.748897</v>
+        <v>4063042621.342147</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1169742402097252</v>
+        <v>0.1177953242377573</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03136946126788353</v>
+        <v>0.02166113418780283</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2037457356.764522</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1590101716.41514</v>
+        <v>2294005916.193645</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1405818340898722</v>
+        <v>0.1257131733024113</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02236317432785461</v>
+        <v>0.02226442011359611</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>795050859.1696347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4720155018.65773</v>
+        <v>4811785037.258863</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08773868430797159</v>
+        <v>0.1341242274683311</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04337715908382919</v>
+        <v>0.0370164125585242</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>117</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2360077423.526656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1847877210.807407</v>
+        <v>1238148660.555156</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1072417179166938</v>
+        <v>0.1228321766298045</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03822876406063493</v>
+        <v>0.02665504224607137</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>923938700.4792594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5308906561.833617</v>
+        <v>3512776449.349905</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1077579306209256</v>
+        <v>0.07768111258920132</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03600879301416391</v>
+        <v>0.0243090365339566</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>70</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2654453345.483947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3540121609.165709</v>
+        <v>4422726615.774004</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1210953293669931</v>
+        <v>0.1095282907608269</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0231453246502418</v>
+        <v>0.0294111873843254</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1770060750.726387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3523502694.062354</v>
+        <v>5031929421.355983</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1451875401000372</v>
+        <v>0.1667323316349853</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02118289473639117</v>
+        <v>0.02245277379251374</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>118</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1761751413.392665</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1532232463.43074</v>
+        <v>2221187636.586592</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1126631201500726</v>
+        <v>0.1557045535457815</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04057550559221262</v>
+        <v>0.03464746608041478</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>766116158.8430411</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2178273255.284003</v>
+        <v>2221878863.099597</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09462221851980317</v>
+        <v>0.09971584326528998</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0449580960356374</v>
+        <v>0.04060653541174311</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1089136606.593064</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2833444447.441125</v>
+        <v>3595981734.323123</v>
       </c>
       <c r="F85" t="n">
-        <v>0.151462925358968</v>
+        <v>0.1635961371882282</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04417252932195354</v>
+        <v>0.03678318131504046</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>126</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1416722265.480279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2463071893.668796</v>
+        <v>2006237235.939271</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1401855232203305</v>
+        <v>0.1202054040051181</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02292934889302817</v>
+        <v>0.02449092702945745</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1231536038.860002</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1381621899.644423</v>
+        <v>1313607528.2589</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1858030303837409</v>
+        <v>0.160330902511095</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03596757648543281</v>
+        <v>0.03073966871927301</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>690811051.9646281</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2319466558.793847</v>
+        <v>3252693864.781987</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1210567044448806</v>
+        <v>0.1276514433607319</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02617343469406023</v>
+        <v>0.03458623422877298</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>133</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1159733242.5945</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3255512044.75382</v>
+        <v>2669422236.375534</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1596566700446704</v>
+        <v>0.1256400117838961</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03168551895506862</v>
+        <v>0.03666585777980017</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>114</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1627756041.778069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1423000256.489993</v>
+        <v>1944823211.403167</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09151162626711799</v>
+        <v>0.08825184190348954</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03544586176796097</v>
+        <v>0.0401868238584806</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>711500092.8593601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1826748738.439075</v>
+        <v>1679343726.037794</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1723853277882565</v>
+        <v>0.1588484612501195</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0596917391375563</v>
+        <v>0.05173102543293681</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>913374364.5782702</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1933373494.898595</v>
+        <v>2851589613.471932</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09519769180441633</v>
+        <v>0.09051340335708305</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03276327735352447</v>
+        <v>0.03514479209508582</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>91</v>
-      </c>
-      <c r="J92" t="n">
-        <v>966686688.6079934</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3347745475.061964</v>
+        <v>3345510406.791539</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1306651477102138</v>
+        <v>0.09499745074161849</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04883484175035425</v>
+        <v>0.03808509922479752</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1673872780.34208</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1539833775.031129</v>
+        <v>1931663304.124155</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1463179837549546</v>
+        <v>0.1356018982128231</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03291476666220086</v>
+        <v>0.03175554491142549</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>769916825.9478288</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3156508648.899815</v>
+        <v>3190972288.844113</v>
       </c>
       <c r="F95" t="n">
-        <v>0.103420929129496</v>
+        <v>0.09609309772683843</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03643212458332708</v>
+        <v>0.05104407900747663</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>81</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1578254312.837972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1939708688.279891</v>
+        <v>1994013478.878016</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09595231062035632</v>
+        <v>0.1283934265941404</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03173135335027154</v>
+        <v>0.04655440824960734</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>969854337.5736053</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5370883172.982584</v>
+        <v>4714947926.264012</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1323749956816863</v>
+        <v>0.1508645558904743</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02098648417305475</v>
+        <v>0.02278852289140845</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>108</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2685441753.132595</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2595157431.405249</v>
+        <v>3789706606.439373</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08086573803427512</v>
+        <v>0.1000335709981297</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02521008228249103</v>
+        <v>0.03282073173577106</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1297578672.953901</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3331856825.547206</v>
+        <v>2908293310.256192</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1461728803615195</v>
+        <v>0.1056801688707956</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02907361960975733</v>
+        <v>0.02563526888933281</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>106</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1665928422.759941</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3913315093.154243</v>
+        <v>4469781114.970782</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1509340718650088</v>
+        <v>0.1194388012837181</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02772355490362673</v>
+        <v>0.01922425426239729</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1956657610.344391</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2838342388.038481</v>
+        <v>2462989668.817644</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1801276999358678</v>
+        <v>0.1822754496937451</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04087835396090015</v>
+        <v>0.03634360338853929</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>136</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1419171261.724433</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_337.xlsx
+++ b/output/fit_clients/fit_round_337.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1529305826.75582</v>
+        <v>2094698614.864346</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1119311933454718</v>
+        <v>0.11413694140379</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03004219517820798</v>
+        <v>0.04501527945238552</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2207196191.344038</v>
+        <v>2613501937.38072</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1564583520801784</v>
+        <v>0.1612431882218192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03672109673067109</v>
+        <v>0.04157598801175569</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4479120524.839908</v>
+        <v>3356452896.42083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1048064669748586</v>
+        <v>0.101536833239127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02377443315490243</v>
+        <v>0.03277031586065624</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4001743545.377168</v>
+        <v>2812286847.535185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07153620259666436</v>
+        <v>0.1037814226786266</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05010521627937053</v>
+        <v>0.03429077119867792</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2533809878.697386</v>
+        <v>2863932686.63214</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1435865318000479</v>
+        <v>0.1315816102147808</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05484993709200893</v>
+        <v>0.04272201995599478</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2602643178.471279</v>
+        <v>3040640845.005926</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0913951458571685</v>
+        <v>0.07692614321878317</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03904272943261938</v>
+        <v>0.03670694504162662</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3333832306.222692</v>
+        <v>3957456721.933403</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1372283961274579</v>
+        <v>0.2167549289109674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03262242684120432</v>
+        <v>0.02814095695822531</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2122158109.65502</v>
+        <v>2010625093.723648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1305011141735432</v>
+        <v>0.128404746216441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02878603247998984</v>
+        <v>0.02807835517938334</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4212192700.614077</v>
+        <v>4307118853.696561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1697290404494041</v>
+        <v>0.1582023844743128</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03904052240824219</v>
+        <v>0.04444236535664858</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3984642023.05155</v>
+        <v>4259869043.346608</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1710076103030176</v>
+        <v>0.1797126752640859</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04210849768453664</v>
+        <v>0.04542801610193593</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2650175043.556939</v>
+        <v>2380680230.972657</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1516712598247396</v>
+        <v>0.1753595234720794</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03518612145848102</v>
+        <v>0.04468860864569801</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5106464552.356826</v>
+        <v>4101486215.014971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06558987716824004</v>
+        <v>0.08127797185695547</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02706187304489411</v>
+        <v>0.02815134760957627</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2496863998.554345</v>
+        <v>2546111657.856289</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1244699297293607</v>
+        <v>0.1156742621953244</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04223117125080469</v>
+        <v>0.03773301795374792</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1371767672.706224</v>
+        <v>1371348658.012506</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0757104861921639</v>
+        <v>0.06667133098410812</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0376121379454982</v>
+        <v>0.04789167001963626</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2071287879.274427</v>
+        <v>2804585551.500735</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09148666868670856</v>
+        <v>0.09848768466942159</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03258608957585123</v>
+        <v>0.0504163823942522</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3945796311.215241</v>
+        <v>4380247156.331116</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1104621346162557</v>
+        <v>0.1514558389500162</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03216779722401247</v>
+        <v>0.03437747874840512</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4013967374.361361</v>
+        <v>2593283870.209207</v>
       </c>
       <c r="F18" t="n">
-        <v>0.164644783569685</v>
+        <v>0.127624108298331</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02959563363382356</v>
+        <v>0.0256886712613712</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1333265778.353149</v>
+        <v>1093465407.688183</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1267926869272065</v>
+        <v>0.1270938949420097</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01836239612834518</v>
+        <v>0.0272554919006075</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2242114519.237858</v>
+        <v>2018844585.484917</v>
       </c>
       <c r="F20" t="n">
-        <v>0.144304233912456</v>
+        <v>0.1408272289874596</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03094766183651457</v>
+        <v>0.02953024935635728</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1692795434.028269</v>
+        <v>2310940774.54767</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07315494236936343</v>
+        <v>0.07276764186195299</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03661673048668657</v>
+        <v>0.03854029035152889</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3822714223.858274</v>
+        <v>2859686265.641298</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1263786896326389</v>
+        <v>0.118948574832507</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05264644126873398</v>
+        <v>0.05228850835094746</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>968950060.1785016</v>
+        <v>1163336572.057996</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1144604002602052</v>
+        <v>0.1518127503115327</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04126246567423848</v>
+        <v>0.05496127922086761</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3178019139.485759</v>
+        <v>3121163547.246399</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09092679878853095</v>
+        <v>0.09182080906669481</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02923517326801112</v>
+        <v>0.0280956213229151</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1248790145.104058</v>
+        <v>1150249494.066635</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0812629216392461</v>
+        <v>0.1106265085861581</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02617468964981477</v>
+        <v>0.03084818456776275</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1327715728.883425</v>
+        <v>938159631.0223478</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08192139110392711</v>
+        <v>0.09413415143070619</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02661485185290963</v>
+        <v>0.03569557233546553</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4055744856.685759</v>
+        <v>4671441714.726326</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1478394865431622</v>
+        <v>0.1145699301898804</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02482284896399603</v>
+        <v>0.01870014278813948</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3177623868.036929</v>
+        <v>3347567967.088665</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1030661731886281</v>
+        <v>0.1248793929916008</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03430881832123991</v>
+        <v>0.03829273771123328</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5699064597.625983</v>
+        <v>5308272898.167865</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1350023617151611</v>
+        <v>0.1459910618699148</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03376276199187395</v>
+        <v>0.03798035316845187</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2225394032.964544</v>
+        <v>1507481410.473886</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1141442138897707</v>
+        <v>0.09418009802976154</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02469141631562459</v>
+        <v>0.02669870168864306</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1438042929.287174</v>
+        <v>1059122538.366275</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1006189513079207</v>
+        <v>0.1056334762069973</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04120826096301505</v>
+        <v>0.03564096067047655</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1265159171.720259</v>
+        <v>1655720838.696128</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08257200697998737</v>
+        <v>0.07813895571727256</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02683002197673721</v>
+        <v>0.03516655205105167</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2949602805.130348</v>
+        <v>2604621432.427286</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1912963006413122</v>
+        <v>0.1460543162343491</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0524855140360923</v>
+        <v>0.04928211102002302</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1133235767.897424</v>
+        <v>1483987328.740447</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08690784110275392</v>
+        <v>0.1059441425943335</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01879272110335626</v>
+        <v>0.018535560376304</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1178566379.046377</v>
+        <v>998946250.9179085</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08853416136075501</v>
+        <v>0.08952086438364112</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03321326512791149</v>
+        <v>0.04122508780462227</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3031112969.675031</v>
+        <v>2605889142.030028</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1390632595037958</v>
+        <v>0.1675569651567212</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02269179837492139</v>
+        <v>0.0232110139403113</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2528971677.809813</v>
+        <v>2832201543.162431</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1054906137778366</v>
+        <v>0.06856618156749125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02843990119207099</v>
+        <v>0.02925201779483917</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1433057979.35323</v>
+        <v>1378519545.530038</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08339752456886404</v>
+        <v>0.08457347324177472</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02833666015408438</v>
+        <v>0.02562324011584477</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1448057598.033333</v>
+        <v>1425131026.117712</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1394824108995748</v>
+        <v>0.1185478321136794</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02427780920784867</v>
+        <v>0.03218246773280921</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1222438917.752785</v>
+        <v>1206890378.61973</v>
       </c>
       <c r="F40" t="n">
-        <v>0.122576833246966</v>
+        <v>0.116847175500392</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0380381436323093</v>
+        <v>0.05899262310552187</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2878457368.178119</v>
+        <v>1823140034.78883</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1006218398127755</v>
+        <v>0.1665498249137645</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03515348284676063</v>
+        <v>0.03573843918089762</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3055749831.036099</v>
+        <v>4189022927.299137</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07841425626017101</v>
+        <v>0.1066487566629946</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02832600314960226</v>
+        <v>0.04515192983660767</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2436462014.891586</v>
+        <v>1875533711.417598</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1595449400227388</v>
+        <v>0.1428711536993205</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01834369368651436</v>
+        <v>0.02550851653121661</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2061348407.583701</v>
+        <v>2329999953.821814</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07064512856323209</v>
+        <v>0.07075830063087299</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02546166118023448</v>
+        <v>0.02257957653604349</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1657936553.932191</v>
+        <v>2395978148.34796</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1767581963638479</v>
+        <v>0.1334659903961347</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03719148341562043</v>
+        <v>0.04946419809629141</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3655801594.558506</v>
+        <v>4654422446.21476</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1534312457222198</v>
+        <v>0.1506890368578821</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05900311171390259</v>
+        <v>0.0520796498492555</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3997859612.136194</v>
+        <v>3485978951.278428</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1726369729213212</v>
+        <v>0.2026624378328487</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03780350216002176</v>
+        <v>0.04400183446070149</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4145903374.839443</v>
+        <v>3156204051.531846</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1095450714372202</v>
+        <v>0.1102023554327421</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03145935224346557</v>
+        <v>0.02487416607636532</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1647172858.149218</v>
+        <v>1883543423.70313</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1836923637437294</v>
+        <v>0.1814540004785665</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04159591317125125</v>
+        <v>0.03513506579224131</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3596041536.183731</v>
+        <v>3443939936.666233</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1217449143055392</v>
+        <v>0.1330150901983557</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05242451050503562</v>
+        <v>0.03554009508449811</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>994939895.2699075</v>
+        <v>1507503998.254994</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1557040136223636</v>
+        <v>0.1655645571299425</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03311031840413538</v>
+        <v>0.04699485488838038</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3434036115.516582</v>
+        <v>3849249790.522347</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1111963029506513</v>
+        <v>0.09279899278787411</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05445240714827199</v>
+        <v>0.06046644243685651</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3192966595.460077</v>
+        <v>3638673686.773454</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1411482924559313</v>
+        <v>0.1511314852121717</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03186519805760074</v>
+        <v>0.02907822983037638</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3101462529.629425</v>
+        <v>4191837865.764456</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1287941210718563</v>
+        <v>0.1155055214215857</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03560816984622164</v>
+        <v>0.04894239449554955</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3954316651.56466</v>
+        <v>3184188543.313085</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1906545081108867</v>
+        <v>0.1985355396696286</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02383594973698477</v>
+        <v>0.024321221690024</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1521532088.081771</v>
+        <v>1843743961.665514</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1498016858332786</v>
+        <v>0.1195666641005383</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05536502511040993</v>
+        <v>0.03510413899335155</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2858904179.706792</v>
+        <v>3131293514.864814</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1522482449441836</v>
+        <v>0.1627605792079222</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02543972994429894</v>
+        <v>0.01865761609248753</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1794773149.829656</v>
+        <v>1287431958.864072</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1845835155739754</v>
+        <v>0.1706623149313728</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03136942246179309</v>
+        <v>0.03840611619660263</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3828467852.505636</v>
+        <v>3284114732.150308</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1262215705988096</v>
+        <v>0.1208950119828236</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03283837533324601</v>
+        <v>0.04478319009183825</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2810268557.481593</v>
+        <v>2637446797.82249</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1315049773029363</v>
+        <v>0.1841842018889365</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03229158171286668</v>
+        <v>0.03089115467294438</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2838715478.450148</v>
+        <v>2241358981.847778</v>
       </c>
       <c r="F61" t="n">
-        <v>0.15102799148499</v>
+        <v>0.1244841367065863</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02676874231250432</v>
+        <v>0.0323487963703151</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1807347329.828583</v>
+        <v>2110855588.0929</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1871308236195049</v>
+        <v>0.1669162067406265</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03519904018454131</v>
+        <v>0.0394216636296011</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4556048914.35663</v>
+        <v>4313495396.862358</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07347821314472049</v>
+        <v>0.09064383150441993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04622667501519196</v>
+        <v>0.0459155193635496</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5169741410.125651</v>
+        <v>3760517639.516417</v>
       </c>
       <c r="F64" t="n">
-        <v>0.166807389763171</v>
+        <v>0.1550964452387981</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02278244528172312</v>
+        <v>0.0225274739990491</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4375808138.244198</v>
+        <v>5208015110.093359</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1296344432716681</v>
+        <v>0.1584376001866635</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0198360197510298</v>
+        <v>0.02939400567835723</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4251853087.395383</v>
+        <v>3637054066.09966</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1512641052042149</v>
+        <v>0.09908996700469233</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04597765169344276</v>
+        <v>0.03743854221973644</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3260707031.364792</v>
+        <v>2434366254.476442</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06917522735485339</v>
+        <v>0.07665296890996713</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03237172151365957</v>
+        <v>0.04645801451840169</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6035567157.415928</v>
+        <v>4402359484.028579</v>
       </c>
       <c r="F68" t="n">
-        <v>0.10378380272858</v>
+        <v>0.1123393702145103</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03277119818516986</v>
+        <v>0.04820181643812711</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1849964748.397324</v>
+        <v>2311528210.242724</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1678547796479905</v>
+        <v>0.158994343561626</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0433881187178091</v>
+        <v>0.06007666814476537</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2963876121.047709</v>
+        <v>2927633608.201514</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08462248104027509</v>
+        <v>0.09687139814975367</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03247602137847366</v>
+        <v>0.03746351482357056</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4155245363.123485</v>
+        <v>5112072416.820737</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1594207096183906</v>
+        <v>0.1214760571197449</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02305167502806685</v>
+        <v>0.02348894257375333</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1730535123.669759</v>
+        <v>2057488678.994548</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0718860252869345</v>
+        <v>0.06943784777538466</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03535127453021246</v>
+        <v>0.04605514827535197</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3020313117.317733</v>
+        <v>2267166139.920657</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07480019280067879</v>
+        <v>0.09573932972772498</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05087042768259539</v>
+        <v>0.0375726751737353</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2700168455.777534</v>
+        <v>3286670614.912544</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1681368021556054</v>
+        <v>0.1266479177923654</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0280912377411961</v>
+        <v>0.03306160896176323</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1868808136.014055</v>
+        <v>1948007681.435355</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1225537071120905</v>
+        <v>0.1636881236146676</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02394243984931779</v>
+        <v>0.02560294459086429</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4063042621.342147</v>
+        <v>3843377563.616611</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1177953242377573</v>
+        <v>0.0905247651159064</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02166113418780283</v>
+        <v>0.03009983715022128</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2294005916.193645</v>
+        <v>2291666942.693613</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1257131733024113</v>
+        <v>0.1360739976611867</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02226442011359611</v>
+        <v>0.02974434127868749</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4811785037.258863</v>
+        <v>3629246660.674351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1341242274683311</v>
+        <v>0.1157058525292915</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0370164125585242</v>
+        <v>0.03859388656823876</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1238148660.555156</v>
+        <v>1836483135.329421</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1228321766298045</v>
+        <v>0.1566073388984424</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02665504224607137</v>
+        <v>0.0395692458764668</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3512776449.349905</v>
+        <v>4996795783.249422</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07768111258920132</v>
+        <v>0.1036260725068205</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0243090365339566</v>
+        <v>0.03225047409022255</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4422726615.774004</v>
+        <v>4973253590.54462</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1095282907608269</v>
+        <v>0.112433107748832</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0294111873843254</v>
+        <v>0.02048050508321453</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5031929421.355983</v>
+        <v>4482982741.29149</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1667323316349853</v>
+        <v>0.1886304049895117</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02245277379251374</v>
+        <v>0.01964578297448816</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2221187636.586592</v>
+        <v>2020441023.476504</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1557045535457815</v>
+        <v>0.1185057472900498</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03464746608041478</v>
+        <v>0.0350324692683575</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2221878863.099597</v>
+        <v>2359604788.927251</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09971584326528998</v>
+        <v>0.1095944541485395</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04060653541174311</v>
+        <v>0.0392018375219938</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3595981734.323123</v>
+        <v>3379830237.378502</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1635961371882282</v>
+        <v>0.1533983089318311</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03678318131504046</v>
+        <v>0.04107754071894432</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2006237235.939271</v>
+        <v>2685116767.715172</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1202054040051181</v>
+        <v>0.1562244943611505</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02449092702945745</v>
+        <v>0.01671108581746952</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1313607528.2589</v>
+        <v>997209478.9665484</v>
       </c>
       <c r="F87" t="n">
-        <v>0.160330902511095</v>
+        <v>0.1628929902046285</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03073966871927301</v>
+        <v>0.02734036224395334</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3252693864.781987</v>
+        <v>2740354317.272992</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1276514433607319</v>
+        <v>0.1374297167930207</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03458623422877298</v>
+        <v>0.0247641852636611</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2669422236.375534</v>
+        <v>2142557483.206453</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1256400117838961</v>
+        <v>0.1183159357795437</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03666585777980017</v>
+        <v>0.04035575901133239</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1944823211.403167</v>
+        <v>1611215379.305544</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08825184190348954</v>
+        <v>0.1057509079244777</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0401868238584806</v>
+        <v>0.04566745985563026</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1679343726.037794</v>
+        <v>2001278562.260719</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1588484612501195</v>
+        <v>0.1510479360596897</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05173102543293681</v>
+        <v>0.06055183482462143</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2851589613.471932</v>
+        <v>1956992713.745482</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09051340335708305</v>
+        <v>0.09641513297770676</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03514479209508582</v>
+        <v>0.04319647225496159</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3345510406.791539</v>
+        <v>3258398972.182199</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09499745074161849</v>
+        <v>0.0970834307462565</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03808509922479752</v>
+        <v>0.04409572455779889</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1931663304.124155</v>
+        <v>2030033184.000638</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1356018982128231</v>
+        <v>0.1670308956876682</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03175554491142549</v>
+        <v>0.03290226796669487</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3190972288.844113</v>
+        <v>2465896570.733713</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09609309772683843</v>
+        <v>0.09454909575276767</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05104407900747663</v>
+        <v>0.04335897158632697</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1994013478.878016</v>
+        <v>1758194954.676191</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1283934265941404</v>
+        <v>0.1062249998835325</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04655440824960734</v>
+        <v>0.03443081562047892</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4714947926.264012</v>
+        <v>4361000619.090968</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1508645558904743</v>
+        <v>0.1640738134142065</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02278852289140845</v>
+        <v>0.02229842395106604</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3789706606.439373</v>
+        <v>2841900754.35689</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1000335709981297</v>
+        <v>0.1160338733067523</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03282073173577106</v>
+        <v>0.02727027220296513</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2908293310.256192</v>
+        <v>2411002197.954614</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1056801688707956</v>
+        <v>0.1205688627572393</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02563526888933281</v>
+        <v>0.03456239519042668</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4469781114.970782</v>
+        <v>4318725018.891859</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1194388012837181</v>
+        <v>0.1373266354413876</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01922425426239729</v>
+        <v>0.01787904487592416</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2462989668.817644</v>
+        <v>2961281067.185271</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1822754496937451</v>
+        <v>0.1970740869163584</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03634360338853929</v>
+        <v>0.04886316454237385</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_337.xlsx
+++ b/output/fit_clients/fit_round_337.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2094698614.864346</v>
+        <v>2339098943.391293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11413694140379</v>
+        <v>0.09414438689064146</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04501527945238552</v>
+        <v>0.03294592803131321</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2613501937.38072</v>
+        <v>2426362290.713218</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1612431882218192</v>
+        <v>0.1396532433388155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04157598801175569</v>
+        <v>0.04211607626303764</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3356452896.42083</v>
+        <v>5204273672.99942</v>
       </c>
       <c r="F4" t="n">
-        <v>0.101536833239127</v>
+        <v>0.1247005479968527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03277031586065624</v>
+        <v>0.03513771723408269</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>175</v>
+      </c>
+      <c r="J4" t="n">
+        <v>336</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68.35940885975674</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2812286847.535185</v>
+        <v>3409842093.094738</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1037814226786266</v>
+        <v>0.1015784670473517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03429077119867792</v>
+        <v>0.04107246043434722</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>134</v>
+      </c>
+      <c r="J5" t="n">
+        <v>336</v>
+      </c>
+      <c r="K5" t="n">
+        <v>55.03826170270341</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2863932686.63214</v>
+        <v>1916452807.291447</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1315816102147808</v>
+        <v>0.1279998151507575</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04272201995599478</v>
+        <v>0.05345593715402289</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3040640845.005926</v>
+        <v>2015379901.101844</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07692614321878317</v>
+        <v>0.09149343542876948</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03670694504162662</v>
+        <v>0.0427366142785981</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3957456721.933403</v>
+        <v>2469840078.216468</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2167549289109674</v>
+        <v>0.1580905102407496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02814095695822531</v>
+        <v>0.02789043138245431</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2010625093.723648</v>
+        <v>1882222646.417862</v>
       </c>
       <c r="F9" t="n">
-        <v>0.128404746216441</v>
+        <v>0.1354140850514652</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02807835517938334</v>
+        <v>0.02476317108017246</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4307118853.696561</v>
+        <v>5912421339.317708</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1582023844743128</v>
+        <v>0.2065005451812094</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04444236535664858</v>
+        <v>0.03946408593565762</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>289</v>
+      </c>
+      <c r="J10" t="n">
+        <v>336</v>
+      </c>
+      <c r="K10" t="n">
+        <v>68.12837946895483</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4259869043.346608</v>
+        <v>3463596320.72458</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1797126752640859</v>
+        <v>0.1289676921695237</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04542801610193593</v>
+        <v>0.032979542644737</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>137</v>
+      </c>
+      <c r="J11" t="n">
+        <v>337</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2380680230.972657</v>
+        <v>2261871042.78941</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1753595234720794</v>
+        <v>0.1676647228159501</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04468860864569801</v>
+        <v>0.05088154071550813</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4101486215.014971</v>
+        <v>4417149432.116561</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08127797185695547</v>
+        <v>0.06130412508633355</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02815134760957627</v>
+        <v>0.02397833912681097</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>175</v>
+      </c>
+      <c r="J13" t="n">
+        <v>337</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2546111657.856289</v>
+        <v>3661221035.593688</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1156742621953244</v>
+        <v>0.1300130907016489</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03773301795374792</v>
+        <v>0.04278276989631967</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="n">
+        <v>63.6989085928473</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1371348658.012506</v>
+        <v>1432033935.60141</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06667133098410812</v>
+        <v>0.07731418089278896</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04789167001963626</v>
+        <v>0.03326386450508573</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2804585551.500735</v>
+        <v>2574527026.67017</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09848768466942159</v>
+        <v>0.08577829447098861</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0504163823942522</v>
+        <v>0.03433786549175453</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4380247156.331116</v>
+        <v>5023196052.953814</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1514558389500162</v>
+        <v>0.136830627438128</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03437747874840512</v>
+        <v>0.03874701182532488</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>159</v>
+      </c>
+      <c r="J17" t="n">
+        <v>336</v>
+      </c>
+      <c r="K17" t="n">
+        <v>67.56176962916636</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2593283870.209207</v>
+        <v>3810809870.223634</v>
       </c>
       <c r="F18" t="n">
-        <v>0.127624108298331</v>
+        <v>0.1289349546366705</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0256886712613712</v>
+        <v>0.03429516135798905</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="n">
+        <v>64.48100380511437</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1093465407.688183</v>
+        <v>1057815471.109909</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1270938949420097</v>
+        <v>0.1868268939246882</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0272554919006075</v>
+        <v>0.02053678223903387</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2018844585.484917</v>
+        <v>2706596746.544779</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1408272289874596</v>
+        <v>0.1303834522668456</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02953024935635728</v>
+        <v>0.02703930756390028</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2310940774.54767</v>
+        <v>2268518226.968414</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07276764186195299</v>
+        <v>0.07690861451939827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03854029035152889</v>
+        <v>0.03803667613841635</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2859686265.641298</v>
+        <v>2688619578.03286</v>
       </c>
       <c r="F22" t="n">
-        <v>0.118948574832507</v>
+        <v>0.1168083790266676</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05228850835094746</v>
+        <v>0.05176856940458257</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>331</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1163336572.057996</v>
+        <v>1169831889.93769</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1518127503115327</v>
+        <v>0.140753544874806</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05496127922086761</v>
+        <v>0.04090262494345715</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3121163547.246399</v>
+        <v>2567580388.587728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09182080906669481</v>
+        <v>0.1163294368587297</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0280956213229151</v>
+        <v>0.02265658550593841</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99</v>
+      </c>
+      <c r="J24" t="n">
+        <v>332</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1150249494.066635</v>
+        <v>1066593739.438877</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1106265085861581</v>
+        <v>0.08303680976852544</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03084818456776275</v>
+        <v>0.01862259379912133</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>938159631.0223478</v>
+        <v>1177902800.631677</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09413415143070619</v>
+        <v>0.09203627252172156</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03569557233546553</v>
+        <v>0.03416331929044144</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1388,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4671441714.726326</v>
+        <v>4291785208.081934</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1145699301898804</v>
+        <v>0.09741926000962926</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01870014278813948</v>
+        <v>0.02234205113157754</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>141</v>
+      </c>
+      <c r="J27" t="n">
+        <v>336</v>
+      </c>
+      <c r="K27" t="n">
+        <v>67.06524408521786</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3347567967.088665</v>
+        <v>3269237240.625266</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1248793929916008</v>
+        <v>0.09819304301095569</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03829273771123328</v>
+        <v>0.04782621703953557</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>73</v>
+      </c>
+      <c r="J28" t="n">
+        <v>335</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5308272898.167865</v>
+        <v>4961836230.336261</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1459910618699148</v>
+        <v>0.09512571737260248</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03798035316845187</v>
+        <v>0.04555561961187823</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>306</v>
+      </c>
+      <c r="J29" t="n">
+        <v>336</v>
+      </c>
+      <c r="K29" t="n">
+        <v>68.37870657284145</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1507481410.473886</v>
+        <v>1678669822.738523</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09418009802976154</v>
+        <v>0.1264665333691337</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02669870168864306</v>
+        <v>0.03758669189605849</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1059122538.366275</v>
+        <v>1329855732.198452</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1056334762069973</v>
+        <v>0.09854776456145467</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03564096067047655</v>
+        <v>0.05108514417928466</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1655720838.696128</v>
+        <v>1316499042.498239</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07813895571727256</v>
+        <v>0.1002512551677121</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03516655205105167</v>
+        <v>0.02871548770145342</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2604621432.427286</v>
+        <v>2047669458.956405</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1460543162343491</v>
+        <v>0.2042691329607272</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04928211102002302</v>
+        <v>0.06104537751956098</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1483987328.740447</v>
+        <v>1463670457.738375</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1059441425943335</v>
+        <v>0.113147804787721</v>
       </c>
       <c r="G34" t="n">
-        <v>0.018535560376304</v>
+        <v>0.02424777617242284</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>998946250.9179085</v>
+        <v>1348794800.457585</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08952086438364112</v>
+        <v>0.08146279197395706</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04122508780462227</v>
+        <v>0.02916048174004244</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2605889142.030028</v>
+        <v>2954866034.100107</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1675569651567212</v>
+        <v>0.1179409864347024</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0232110139403113</v>
+        <v>0.01867322129084445</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2832201543.162431</v>
+        <v>2366337249.830086</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06856618156749125</v>
+        <v>0.1011722322069233</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02925201779483917</v>
+        <v>0.03529609477388836</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1378519545.530038</v>
+        <v>1825510149.660422</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08457347324177472</v>
+        <v>0.09847462830986543</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02562324011584477</v>
+        <v>0.02418142524274788</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1425131026.117712</v>
+        <v>1641482860.982595</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1185478321136794</v>
+        <v>0.1886921063298115</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03218246773280921</v>
+        <v>0.02820043457692495</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1206890378.61973</v>
+        <v>1660929538.387967</v>
       </c>
       <c r="F40" t="n">
-        <v>0.116847175500392</v>
+        <v>0.1189569970035895</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05899262310552187</v>
+        <v>0.05985461492958295</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1823140034.78883</v>
+        <v>2750738459.101688</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1665498249137645</v>
+        <v>0.1044704028967161</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03573843918089762</v>
+        <v>0.04309474728588927</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1917,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4189022927.299137</v>
+        <v>4054895448.603669</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1066487566629946</v>
+        <v>0.1027794573081401</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04515192983660767</v>
+        <v>0.03475401688251595</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>144</v>
+      </c>
+      <c r="J42" t="n">
+        <v>337</v>
+      </c>
+      <c r="K42" t="n">
+        <v>69.72497387058912</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1875533711.417598</v>
+        <v>2384918575.793619</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1428711536993205</v>
+        <v>0.1559414954079471</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02550851653121661</v>
+        <v>0.0212717569285431</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2329999953.821814</v>
+        <v>2233161321.922143</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07075830063087299</v>
+        <v>0.0704719164374099</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02257957653604349</v>
+        <v>0.02340511232614224</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2395978148.34796</v>
+        <v>2183874289.556148</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1334659903961347</v>
+        <v>0.139027431182157</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04946419809629141</v>
+        <v>0.05327702042212351</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4654422446.21476</v>
+        <v>4421189757.635726</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1506890368578821</v>
+        <v>0.1748040212555952</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0520796498492555</v>
+        <v>0.03731408691080243</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>201</v>
+      </c>
+      <c r="J46" t="n">
+        <v>337</v>
+      </c>
+      <c r="K46" t="n">
+        <v>72.03549753922745</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3485978951.278428</v>
+        <v>4491949104.597982</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2026624378328487</v>
+        <v>0.1849176035967774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04400183446070149</v>
+        <v>0.05185884354933316</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>150</v>
+      </c>
+      <c r="J47" t="n">
+        <v>336</v>
+      </c>
+      <c r="K47" t="n">
+        <v>61.18040536399539</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2133,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3156204051.531846</v>
+        <v>4467270640.569182</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1102023554327421</v>
+        <v>0.06691457301123692</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02487416607636532</v>
+        <v>0.03636363289483389</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>167</v>
+      </c>
+      <c r="J48" t="n">
+        <v>337</v>
+      </c>
+      <c r="K48" t="n">
+        <v>77.84958914486104</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2164,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1883543423.70313</v>
+        <v>1362341291.736688</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1814540004785665</v>
+        <v>0.1558935894352818</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03513506579224131</v>
+        <v>0.03191820801235508</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2205,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3443939936.666233</v>
+        <v>3410068234.88212</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1330150901983557</v>
+        <v>0.1719686519170571</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03554009508449811</v>
+        <v>0.04446757113115577</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>111</v>
+      </c>
+      <c r="J50" t="n">
+        <v>336</v>
+      </c>
+      <c r="K50" t="n">
+        <v>47.95859491375224</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2242,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1507503998.254994</v>
+        <v>1061000217.93094</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1655645571299425</v>
+        <v>0.178253419257783</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04699485488838038</v>
+        <v>0.03756064482782542</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2271,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3849249790.522347</v>
+        <v>3392771153.726211</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09279899278787411</v>
+        <v>0.123607277602987</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06046644243685651</v>
+        <v>0.05270061303233834</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>202</v>
+      </c>
+      <c r="J52" t="n">
+        <v>337</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2306,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3638673686.773454</v>
+        <v>3139591918.006211</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1511314852121717</v>
+        <v>0.154104922542867</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02907822983037638</v>
+        <v>0.02698033670078305</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>48</v>
+      </c>
+      <c r="J53" t="n">
+        <v>335</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2341,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4191837865.764456</v>
+        <v>4488948019.266047</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1155055214215857</v>
+        <v>0.1049306367696756</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04894239449554955</v>
+        <v>0.04290648761713837</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>178</v>
+      </c>
+      <c r="J54" t="n">
+        <v>337</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2376,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3184188543.313085</v>
+        <v>4307578096.204423</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1985355396696286</v>
+        <v>0.219607627595161</v>
       </c>
       <c r="G55" t="n">
-        <v>0.024321221690024</v>
+        <v>0.02652768659286174</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>160</v>
+      </c>
+      <c r="J55" t="n">
+        <v>337</v>
+      </c>
+      <c r="K55" t="n">
+        <v>72.39688099023998</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2419,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1843743961.665514</v>
+        <v>1893053552.638707</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1195666641005383</v>
+        <v>0.1222294177178163</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03510413899335155</v>
+        <v>0.05039432481368823</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3131293514.864814</v>
+        <v>4320292779.443055</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1627605792079222</v>
+        <v>0.174128373369081</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01865761609248753</v>
+        <v>0.02669090246300824</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>137</v>
+      </c>
+      <c r="J57" t="n">
+        <v>337</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2489,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1287431958.864072</v>
+        <v>1460560978.633673</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1706623149313728</v>
+        <v>0.1793821798266323</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03840611619660263</v>
+        <v>0.03920980269910514</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3284114732.150308</v>
+        <v>4190617180.627837</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1208950119828236</v>
+        <v>0.1178618564507257</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04478319009183825</v>
+        <v>0.04120945869994445</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>162</v>
+      </c>
+      <c r="J59" t="n">
+        <v>337</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2637446797.82249</v>
+        <v>3660372775.651269</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1841842018889365</v>
+        <v>0.1636464237053077</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03089115467294438</v>
+        <v>0.02498317957236547</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>337</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2241358981.847778</v>
+        <v>2655035479.650052</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1244841367065863</v>
+        <v>0.1540803578762628</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0323487963703151</v>
+        <v>0.02159863883787206</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2110855588.0929</v>
+        <v>1654608077.173667</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1669162067406265</v>
+        <v>0.1305669064844099</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0394216636296011</v>
+        <v>0.04132345101694831</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2658,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4313495396.862358</v>
+        <v>4110255101.960404</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09064383150441993</v>
+        <v>0.08681700986815126</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0459155193635496</v>
+        <v>0.02983662755351597</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>165</v>
+      </c>
+      <c r="J63" t="n">
+        <v>336</v>
+      </c>
+      <c r="K63" t="n">
+        <v>61.16163641200367</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3760517639.516417</v>
+        <v>5416167013.433486</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1550964452387981</v>
+        <v>0.1317148155045774</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0225274739990491</v>
+        <v>0.02493970486529543</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>167</v>
+      </c>
+      <c r="J64" t="n">
+        <v>336</v>
+      </c>
+      <c r="K64" t="n">
+        <v>66.61776277258859</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2738,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5208015110.093359</v>
+        <v>4191352545.960093</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1584376001866635</v>
+        <v>0.1595629623040487</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02939400567835723</v>
+        <v>0.02348929370371091</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>262</v>
+      </c>
+      <c r="J65" t="n">
+        <v>336</v>
+      </c>
+      <c r="K65" t="n">
+        <v>64.88491461280002</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2769,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3637054066.09966</v>
+        <v>3656515712.971032</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09908996700469233</v>
+        <v>0.1042170421488484</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03743854221973644</v>
+        <v>0.04158022574656677</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>166</v>
+      </c>
+      <c r="J66" t="n">
+        <v>337</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2804,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2434366254.476442</v>
+        <v>2752076687.850416</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07665296890996713</v>
+        <v>0.06400764527303106</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04645801451840169</v>
+        <v>0.0488331718074382</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2845,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4402359484.028579</v>
+        <v>5020954195.878271</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1123393702145103</v>
+        <v>0.1488331095456308</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04820181643812711</v>
+        <v>0.04685059285427236</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>183</v>
+      </c>
+      <c r="J68" t="n">
+        <v>337</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2311528210.242724</v>
+        <v>2237516130.329524</v>
       </c>
       <c r="F69" t="n">
-        <v>0.158994343561626</v>
+        <v>0.1289332151276871</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06007666814476537</v>
+        <v>0.03888874519411308</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2927633608.201514</v>
+        <v>2338511054.857462</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09687139814975367</v>
+        <v>0.08900465164581463</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03746351482357056</v>
+        <v>0.04336570672396435</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2944,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5112072416.820737</v>
+        <v>4958239765.507538</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1214760571197449</v>
+        <v>0.1789555745625778</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02348894257375333</v>
+        <v>0.0287709633638753</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>248</v>
+      </c>
+      <c r="J71" t="n">
+        <v>337</v>
+      </c>
+      <c r="K71" t="n">
+        <v>68.91392866611504</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2057488678.994548</v>
+        <v>1709568920.746774</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06943784777538466</v>
+        <v>0.1032778340326845</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04605514827535197</v>
+        <v>0.05307576362929121</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2267166139.920657</v>
+        <v>3002106380.287259</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09573932972772498</v>
+        <v>0.09856099054654237</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0375726751737353</v>
+        <v>0.0319365326107959</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3051,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3286670614.912544</v>
+        <v>2736431269.448467</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1266479177923654</v>
+        <v>0.1516317428328534</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03306160896176323</v>
+        <v>0.02886368687597691</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>89</v>
+      </c>
+      <c r="J74" t="n">
+        <v>335</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1948007681.435355</v>
+        <v>2267957586.697603</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1636881236146676</v>
+        <v>0.1325737214981552</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02560294459086429</v>
+        <v>0.02969508644455261</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3121,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3843377563.616611</v>
+        <v>4494725846.552401</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0905247651159064</v>
+        <v>0.1248202505977986</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03009983715022128</v>
+        <v>0.02149742198381131</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>159</v>
+      </c>
+      <c r="J76" t="n">
+        <v>336</v>
+      </c>
+      <c r="K76" t="n">
+        <v>66.30155872479125</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3158,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2291666942.693613</v>
+        <v>2039163684.416056</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1360739976611867</v>
+        <v>0.1837713181016243</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02974434127868749</v>
+        <v>0.02160598768544555</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3199,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3629246660.674351</v>
+        <v>3434978229.682388</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1157058525292915</v>
+        <v>0.10154917232288</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03859388656823876</v>
+        <v>0.03505722744766204</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>165</v>
+      </c>
+      <c r="J78" t="n">
+        <v>337</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1836483135.329421</v>
+        <v>1198587197.355512</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1566073388984424</v>
+        <v>0.1425144405436246</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0395692458764668</v>
+        <v>0.02796787503904026</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3263,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4996795783.249422</v>
+        <v>3685745069.200869</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1036260725068205</v>
+        <v>0.07931436349786328</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03225047409022255</v>
+        <v>0.02433616878893284</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>165</v>
+      </c>
+      <c r="J80" t="n">
+        <v>336</v>
+      </c>
+      <c r="K80" t="n">
+        <v>38.29919168355156</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3300,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4973253590.54462</v>
+        <v>4742315396.31368</v>
       </c>
       <c r="F81" t="n">
-        <v>0.112433107748832</v>
+        <v>0.1341952982633455</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02048050508321453</v>
+        <v>0.02091908697730414</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>155</v>
+      </c>
+      <c r="J81" t="n">
+        <v>337</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3335,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4482982741.29149</v>
+        <v>5455045606.615434</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1886304049895117</v>
+        <v>0.1432904497022907</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01964578297448816</v>
+        <v>0.02427810303151691</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>241</v>
+      </c>
+      <c r="J82" t="n">
+        <v>337</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2020441023.476504</v>
+        <v>2072651605.846411</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1185057472900498</v>
+        <v>0.1096270259616489</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0350324692683575</v>
+        <v>0.04177607642559233</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2359604788.927251</v>
+        <v>2584856871.206079</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1095944541485395</v>
+        <v>0.1030861533165274</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0392018375219938</v>
+        <v>0.03989464445882594</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3379830237.378502</v>
+        <v>2628658321.013772</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1533983089318311</v>
+        <v>0.1795101927432377</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04107754071894432</v>
+        <v>0.03734405906825574</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3481,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2685116767.715172</v>
+        <v>2713923276.77928</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1562244943611505</v>
+        <v>0.1520649361081326</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01671108581746952</v>
+        <v>0.02531966256743219</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>997209478.9665484</v>
+        <v>1169898023.336423</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1628929902046285</v>
+        <v>0.1178721241739693</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02734036224395334</v>
+        <v>0.02874252330401279</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2740354317.272992</v>
+        <v>3283525834.595108</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1374297167930207</v>
+        <v>0.1608858529865585</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0247641852636611</v>
+        <v>0.03789131478842319</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2142557483.206453</v>
+        <v>3281248052.131661</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1183159357795437</v>
+        <v>0.1196017837212342</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04035575901133239</v>
+        <v>0.02790370925409987</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1611215379.305544</v>
+        <v>1738978469.016299</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1057509079244777</v>
+        <v>0.0861808160189384</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04566745985563026</v>
+        <v>0.03848090452501012</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2001278562.260719</v>
+        <v>1885143126.480851</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1510479360596897</v>
+        <v>0.129586124417189</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06055183482462143</v>
+        <v>0.0511370534308882</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1956992713.745482</v>
+        <v>2412672546.972529</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09641513297770676</v>
+        <v>0.09028414386363406</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04319647225496159</v>
+        <v>0.04208331434906654</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3258398972.182199</v>
+        <v>5024079230.355457</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0970834307462565</v>
+        <v>0.1111887560714212</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04409572455779889</v>
+        <v>0.03861899305833102</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>154</v>
+      </c>
+      <c r="J93" t="n">
+        <v>337</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2030033184.000638</v>
+        <v>2328358138.441421</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1670308956876682</v>
+        <v>0.1535862976433328</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03290226796669487</v>
+        <v>0.03274482390032923</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2465896570.733713</v>
+        <v>2510027925.226001</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09454909575276767</v>
+        <v>0.1174424762279768</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04335897158632697</v>
+        <v>0.03813419278823945</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1758194954.676191</v>
+        <v>2217081224.989253</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1062249998835325</v>
+        <v>0.09043613765052416</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03443081562047892</v>
+        <v>0.04103847791268767</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4361000619.090968</v>
+        <v>3342433720.896301</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1640738134142065</v>
+        <v>0.1719309112317325</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02229842395106604</v>
+        <v>0.02487096336723605</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>173</v>
+      </c>
+      <c r="J97" t="n">
+        <v>337</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2841900754.35689</v>
+        <v>3195777256.627191</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1160338733067523</v>
+        <v>0.08810765963610988</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02727027220296513</v>
+        <v>0.02475196340282283</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>84</v>
+      </c>
+      <c r="J98" t="n">
+        <v>335</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2411002197.954614</v>
+        <v>2555196821.805739</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1205688627572393</v>
+        <v>0.1200378204708066</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03456239519042668</v>
+        <v>0.02223400466148032</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4318725018.891859</v>
+        <v>3411677845.550213</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1373266354413876</v>
+        <v>0.1316019776832177</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01787904487592416</v>
+        <v>0.0203596669713098</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>151</v>
+      </c>
+      <c r="J100" t="n">
+        <v>337</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2961281067.185271</v>
+        <v>3128888851.595324</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1970740869163584</v>
+        <v>0.1803405744163156</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04886316454237385</v>
+        <v>0.0538608050302111</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
